--- a/newreports.xlsx
+++ b/newreports.xlsx
@@ -841,10 +841,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -886,7 +887,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1" thickTop="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1" thickTop="1">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -912,7 +913,7 @@
         <v>3.7330700000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -938,7 +939,7 @@
         <v>5.4501099999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -964,7 +965,7 @@
         <v>3.1416300000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -990,7 +991,7 @@
         <v>2.04593E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A6" s="8">
         <v>1</v>
       </c>
@@ -1016,7 +1017,7 @@
         <v>1.59645E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -1042,7 +1043,7 @@
         <v>3.1077199999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A8" s="8">
         <v>1</v>
       </c>
@@ -1068,7 +1069,7 @@
         <v>1.5929200000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A9" s="8">
         <v>1</v>
       </c>
@@ -1094,7 +1095,7 @@
         <v>1.1499199999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A10" s="8">
         <v>1</v>
       </c>
@@ -1120,7 +1121,7 @@
         <v>3.4757899999999999E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A11" s="8">
         <v>1</v>
       </c>
@@ -1146,7 +1147,7 @@
         <v>0.129687</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A12" s="8">
         <v>1</v>
       </c>
@@ -1172,7 +1173,7 @@
         <v>2.7448500000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1" thickTop="1">
       <c r="A13" s="8">
         <v>1</v>
       </c>
@@ -1198,7 +1199,7 @@
         <v>1.9171699999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A14" s="8">
         <v>1</v>
       </c>
@@ -1224,7 +1225,7 @@
         <v>8.0517599999999995E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A15" s="8">
         <v>1</v>
       </c>
@@ -1250,7 +1251,7 @@
         <v>6.7910399999999996E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A16" s="8">
         <v>1</v>
       </c>
@@ -1276,7 +1277,7 @@
         <v>3.8888199999999998E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A17" s="8">
         <v>1</v>
       </c>
@@ -1302,7 +1303,7 @@
         <v>2.4313700000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A18" s="8">
         <v>1</v>
       </c>
@@ -1328,7 +1329,7 @@
         <v>3.1374199999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1" thickBot="1">
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1" thickBot="1">
       <c r="A19" s="5">
         <v>1</v>
       </c>
@@ -1354,7 +1355,7 @@
         <v>2.6363299999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A20" s="8">
         <v>2</v>
       </c>
@@ -1380,7 +1381,7 @@
         <v>8.3470199999999999E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A21" s="2">
         <v>2</v>
       </c>
@@ -1406,7 +1407,7 @@
         <v>1.2386999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A22" s="2">
         <v>2</v>
       </c>
@@ -1432,7 +1433,7 @@
         <v>2.6970200000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A23" s="2">
         <v>2</v>
       </c>
@@ -1458,7 +1459,7 @@
         <v>1.4221599999999999E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A24" s="2">
         <v>2</v>
       </c>
@@ -1484,7 +1485,7 @@
         <v>2.6583899999999997E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A25" s="2">
         <v>2</v>
       </c>
@@ -1510,7 +1511,7 @@
         <v>6.6301399999999996E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A26" s="2">
         <v>2</v>
       </c>
@@ -1536,7 +1537,7 @@
         <v>4.8953199999999999E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A27" s="2">
         <v>2</v>
       </c>
@@ -1562,7 +1563,7 @@
         <v>4.26437E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A28" s="2">
         <v>2</v>
       </c>
@@ -1588,7 +1589,7 @@
         <v>5.3486999999999998E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A29" s="2">
         <v>2</v>
       </c>
@@ -1614,7 +1615,7 @@
         <v>2.28071E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A30" s="2">
         <v>2</v>
       </c>
@@ -1666,7 +1667,7 @@
         <v>1.7303699999999998E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A32" s="2">
         <v>2</v>
       </c>
@@ -1692,7 +1693,7 @@
         <v>9.5990099999999998E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="33" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A33" s="2">
         <v>2</v>
       </c>
@@ -1718,7 +1719,7 @@
         <v>1.01844E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="34" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A34" s="2">
         <v>2</v>
       </c>
@@ -1744,7 +1745,7 @@
         <v>1.05784E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="35" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A35" s="2">
         <v>2</v>
       </c>
@@ -1770,7 +1771,7 @@
         <v>8.2714400000000003E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="36" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A36" s="2">
         <v>2</v>
       </c>
@@ -1796,7 +1797,7 @@
         <v>1.0606400000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1" thickBot="1">
+    <row r="37" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1" thickBot="1">
       <c r="A37" s="5">
         <v>2</v>
       </c>
@@ -1822,7 +1823,7 @@
         <v>5.1279500000000003E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="38" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A38" s="8">
         <v>3</v>
       </c>
@@ -1848,7 +1849,7 @@
         <v>3.5136599999999998E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="39" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A39" s="2">
         <v>3</v>
       </c>
@@ -1874,7 +1875,7 @@
         <v>9.3232999999999999E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="40" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A40" s="2">
         <v>3</v>
       </c>
@@ -1900,7 +1901,7 @@
         <v>3.80329E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="41" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A41" s="2">
         <v>3</v>
       </c>
@@ -1926,7 +1927,7 @@
         <v>1.04694E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="42" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A42" s="2">
         <v>3</v>
       </c>
@@ -1952,7 +1953,7 @@
         <v>1.2164100000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="43" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A43" s="2">
         <v>3</v>
       </c>
@@ -1978,7 +1979,7 @@
         <v>2.6332000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="44" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A44" s="2">
         <v>3</v>
       </c>
@@ -2004,7 +2005,7 @@
         <v>6.1253100000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="45" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A45" s="2">
         <v>3</v>
       </c>
@@ -2030,7 +2031,7 @@
         <v>1.2526799999999999E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="46" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A46" s="2">
         <v>3</v>
       </c>
@@ -2056,7 +2057,7 @@
         <v>6.4136499999999997E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="47" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A47" s="2">
         <v>3</v>
       </c>
@@ -2082,7 +2083,7 @@
         <v>0.129687</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="48" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A48" s="2">
         <v>3</v>
       </c>
@@ -2134,7 +2135,7 @@
         <v>1.9171699999999999E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="50" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A50" s="2">
         <v>3</v>
       </c>
@@ -2160,7 +2161,7 @@
         <v>1.2561300000000001E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="51" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A51" s="2">
         <v>3</v>
       </c>
@@ -2186,7 +2187,7 @@
         <v>8.8701800000000005E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="52" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A52" s="2">
         <v>3</v>
       </c>
@@ -2212,7 +2213,7 @@
         <v>2.1435500000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="53" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A53" s="2">
         <v>3</v>
       </c>
@@ -2238,7 +2239,7 @@
         <v>1.18256E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="54" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A54" s="2">
         <v>3</v>
       </c>
@@ -2264,7 +2265,7 @@
         <v>2.31357E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1" thickBot="1">
+    <row r="55" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1" thickBot="1">
       <c r="A55" s="5">
         <v>3</v>
       </c>
@@ -2290,7 +2291,7 @@
         <v>4.8259799999999997E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="56" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A56" s="8">
         <v>4</v>
       </c>
@@ -2316,7 +2317,7 @@
         <v>1.2682E-5</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="57" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A57" s="2">
         <v>4</v>
       </c>
@@ -2342,7 +2343,7 @@
         <v>1.42096</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="58" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A58" s="2">
         <v>4</v>
       </c>
@@ -2368,7 +2369,7 @@
         <v>1.2414200000000001E-5</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="59" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A59" s="2">
         <v>4</v>
       </c>
@@ -2394,7 +2395,7 @@
         <v>6.3297899999999996E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="60" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A60" s="2">
         <v>4</v>
       </c>
@@ -2420,7 +2421,7 @@
         <v>6.0974000000000003E-5</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="61" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A61" s="2">
         <v>4</v>
       </c>
@@ -2446,7 +2447,7 @@
         <v>4.1848999999999999E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="62" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A62" s="2">
         <v>4</v>
       </c>
@@ -2472,7 +2473,7 @@
         <v>1.6178199999999999E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="63" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A63" s="2">
         <v>4</v>
       </c>
@@ -2498,7 +2499,7 @@
         <v>5.0693099999999998E-5</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="64" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A64" s="2">
         <v>4</v>
       </c>
@@ -2524,7 +2525,7 @@
         <v>1.1287900000000001E-5</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="65" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A65" s="2">
         <v>4</v>
       </c>
@@ -2550,7 +2551,7 @@
         <v>2.28071E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="66" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A66" s="2">
         <v>4</v>
       </c>
@@ -2602,7 +2603,7 @@
         <v>1.7303699999999998E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="68" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A68" s="2">
         <v>4</v>
       </c>
@@ -2628,7 +2629,7 @@
         <v>2.7664599999999999E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="69" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A69" s="2">
         <v>4</v>
       </c>
@@ -2654,7 +2655,7 @@
         <v>2.5352300000000001E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="70" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A70" s="2">
         <v>4</v>
       </c>
@@ -2680,7 +2681,7 @@
         <v>7.0815400000000006E-5</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="71" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A71" s="2">
         <v>4</v>
       </c>
@@ -2706,7 +2707,7 @@
         <v>4.1634500000000003E-5</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="72" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A72" s="2">
         <v>4</v>
       </c>
@@ -2732,7 +2733,7 @@
         <v>3.4188299999999999E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1" thickBot="1">
+    <row r="73" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1" thickBot="1">
       <c r="A73" s="5">
         <v>4</v>
       </c>
@@ -2758,7 +2759,7 @@
         <v>5.1906699999999997E-6</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="74" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A74" s="8">
         <v>5</v>
       </c>
@@ -2784,7 +2785,7 @@
         <v>1.5474499999999999E-5</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="75" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A75" s="2">
         <v>5</v>
       </c>
@@ -2810,7 +2811,7 @@
         <v>8.1345199999999995E-6</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="76" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A76" s="2">
         <v>5</v>
       </c>
@@ -2836,7 +2837,7 @@
         <v>6.64149E-6</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="77" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A77" s="2">
         <v>5</v>
       </c>
@@ -2862,7 +2863,7 @@
         <v>6.2878800000000005E-5</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="78" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A78" s="2">
         <v>5</v>
       </c>
@@ -2888,7 +2889,7 @@
         <v>9.2342099999999998E-5</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="79" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A79" s="2">
         <v>5</v>
       </c>
@@ -2914,7 +2915,7 @@
         <v>3.3221299999999999E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="80" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A80" s="2">
         <v>5</v>
       </c>
@@ -2940,7 +2941,7 @@
         <v>1.6209500000000001E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="81" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A81" s="2">
         <v>5</v>
       </c>
@@ -2966,7 +2967,7 @@
         <v>4.7066700000000001E-5</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="82" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A82" s="2">
         <v>5</v>
       </c>
@@ -2992,7 +2993,7 @@
         <v>1.3056E-5</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="83" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A83" s="2">
         <v>5</v>
       </c>
@@ -3018,7 +3019,7 @@
         <v>2.6924000000000002E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="84" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A84" s="2">
         <v>5</v>
       </c>
@@ -3070,7 +3071,7 @@
         <v>2.3083700000000001E-5</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="86" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A86" s="2">
         <v>5</v>
       </c>
@@ -3096,7 +3097,7 @@
         <v>3.17566E-5</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="87" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A87" s="2">
         <v>5</v>
       </c>
@@ -3122,7 +3123,7 @@
         <v>4.5493700000000001E-5</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="88" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A88" s="2">
         <v>5</v>
       </c>
@@ -3148,7 +3149,7 @@
         <v>6.7892000000000007E-5</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="89" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A89" s="2">
         <v>5</v>
       </c>
@@ -3174,7 +3175,7 @@
         <v>2.9958E-5</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="90" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A90" s="2">
         <v>5</v>
       </c>
@@ -3200,7 +3201,7 @@
         <v>3.8748799999999997E-5</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1" thickBot="1">
+    <row r="91" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1" thickBot="1">
       <c r="A91" s="5">
         <v>5</v>
       </c>
@@ -3226,7 +3227,7 @@
         <v>4.5678499999999998E-6</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="92" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A92" s="8">
         <v>6</v>
       </c>
@@ -3252,7 +3253,7 @@
         <v>4.5838499999999998E-7</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="93" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A93" s="2">
         <v>6</v>
       </c>
@@ -3278,7 +3279,7 @@
         <v>4.2928100000000002E-7</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="94" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A94" s="2">
         <v>6</v>
       </c>
@@ -3304,7 +3305,7 @@
         <v>2.1245800000000001E-7</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="95" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A95" s="2">
         <v>6</v>
       </c>
@@ -3330,7 +3331,7 @@
         <v>1.24099E-5</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="96" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A96" s="2">
         <v>6</v>
       </c>
@@ -3356,7 +3357,7 @@
         <v>1.9524299999999999E-5</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="97" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A97" s="2">
         <v>6</v>
       </c>
@@ -3382,7 +3383,7 @@
         <v>4.3763400000000002E-5</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="98" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A98" s="2">
         <v>6</v>
       </c>
@@ -3408,7 +3409,7 @@
         <v>1.0319600000000001E-4</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="99" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A99" s="2">
         <v>6</v>
       </c>
@@ -3434,7 +3435,7 @@
         <v>2.7070899999999999E-5</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="100" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A100" s="2">
         <v>6</v>
       </c>
@@ -3460,7 +3461,7 @@
         <v>6.8932399999999998E-6</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="101" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A101" s="2">
         <v>6</v>
       </c>
@@ -3486,7 +3487,7 @@
         <v>2.4804200000000002E-4</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="102" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A102" s="2">
         <v>6</v>
       </c>
@@ -3523,7 +3524,7 @@
         <v>28</v>
       </c>
       <c r="D103" s="4">
-        <v>181535</v>
+        <v>0.181535</v>
       </c>
       <c r="E103" s="4">
         <v>6164</v>
@@ -3538,7 +3539,7 @@
         <v>4.6085900000000004E-6</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="104" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A104" s="2">
         <v>6</v>
       </c>
@@ -3564,7 +3565,7 @@
         <v>1.36904E-5</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="105" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A105" s="2">
         <v>6</v>
       </c>
@@ -3590,7 +3591,7 @@
         <v>9.5635200000000006E-6</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="106" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A106" s="2">
         <v>6</v>
       </c>
@@ -3616,7 +3617,7 @@
         <v>3.3460700000000003E-5</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="107" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A107" s="2">
         <v>6</v>
       </c>
@@ -3642,7 +3643,7 @@
         <v>1.3410999999999999E-5</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="108" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A108" s="2">
         <v>6</v>
       </c>
@@ -3668,7 +3669,7 @@
         <v>1.23968E-5</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1" thickBot="1">
+    <row r="109" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1" thickBot="1">
       <c r="A109" s="5">
         <v>6</v>
       </c>
@@ -3694,7 +3695,7 @@
         <v>3.3687699999999999E-6</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="110" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A110" s="8">
         <v>7</v>
       </c>
@@ -3720,7 +3721,7 @@
         <v>1.9848800000000001E-6</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="111" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A111" s="2">
         <v>7</v>
       </c>
@@ -3746,7 +3747,7 @@
         <v>1.9979800000000001E-6</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="112" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A112" s="2">
         <v>7</v>
       </c>
@@ -3772,7 +3773,7 @@
         <v>1.10595E-6</v>
       </c>
     </row>
-    <row r="113" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="113" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A113" s="2">
         <v>7</v>
       </c>
@@ -3798,7 +3799,7 @@
         <v>4.1643200000000001E-5</v>
       </c>
     </row>
-    <row r="114" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="114" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A114" s="2">
         <v>7</v>
       </c>
@@ -3824,7 +3825,7 @@
         <v>2.7348899999999998E-5</v>
       </c>
     </row>
-    <row r="115" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="115" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A115" s="2">
         <v>7</v>
       </c>
@@ -3850,7 +3851,7 @@
         <v>1.6932899999999999E-4</v>
       </c>
     </row>
-    <row r="116" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="116" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A116" s="2">
         <v>7</v>
       </c>
@@ -3876,7 +3877,7 @@
         <v>1.2231500000000001E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="117" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A117" s="2">
         <v>7</v>
       </c>
@@ -3902,7 +3903,7 @@
         <v>3.5489199999999999E-5</v>
       </c>
     </row>
-    <row r="118" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="118" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A118" s="2">
         <v>7</v>
       </c>
@@ -3928,7 +3929,7 @@
         <v>9.0076399999999994E-6</v>
       </c>
     </row>
-    <row r="119" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="119" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A119" s="2">
         <v>7</v>
       </c>
@@ -3954,7 +3955,7 @@
         <v>8.0711599999999997E-4</v>
       </c>
     </row>
-    <row r="120" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="120" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A120" s="2">
         <v>7</v>
       </c>
@@ -4006,7 +4007,7 @@
         <v>1.0550099999999999E-5</v>
       </c>
     </row>
-    <row r="122" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="122" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A122" s="2">
         <v>7</v>
       </c>
@@ -4032,7 +4033,7 @@
         <v>1.9834300000000001E-5</v>
       </c>
     </row>
-    <row r="123" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="123" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A123" s="2">
         <v>7</v>
       </c>
@@ -4058,7 +4059,7 @@
         <v>1.3641E-5</v>
       </c>
     </row>
-    <row r="124" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="124" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A124" s="2">
         <v>7</v>
       </c>
@@ -4084,7 +4085,7 @@
         <v>4.4111199999999999E-5</v>
       </c>
     </row>
-    <row r="125" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="125" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A125" s="2">
         <v>7</v>
       </c>
@@ -4110,7 +4111,7 @@
         <v>2.0292599999999999E-5</v>
       </c>
     </row>
-    <row r="126" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="126" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A126" s="2">
         <v>7</v>
       </c>
@@ -4136,7 +4137,7 @@
         <v>2.1331700000000001E-5</v>
       </c>
     </row>
-    <row r="127" spans="1:8" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="127" spans="1:8" s="1" customFormat="1" ht="22" hidden="1" customHeight="1">
       <c r="A127" s="2">
         <v>7</v>
       </c>
@@ -4164,6 +4165,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H127">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="r3"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:H127">
       <sortCondition ref="A1:A127"/>
     </sortState>
